--- a/Unity/Assets/Config/Excel/Datas/StartConfig/RouterTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/RouterTest/StartSceneConfig.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960"/>
+    <workbookView windowHeight="16960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
-    <sheet name="Router" sheetId="3" r:id="rId3"/>
+    <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -91,12 +90,6 @@
   </si>
   <si>
     <t>OuterPort</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -123,11 +116,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,33 +150,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -199,95 +255,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +300,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,157 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +495,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,26 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +554,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -596,152 +582,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyAlignment="1">
@@ -759,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1097,7 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1327,241 +1307,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
-  <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="21.1634615384615" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6634615384615" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.6634615384615" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.3365384615385" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.1634615384615" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="16.8" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" ht="16.8" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9">
-        <v>200</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" ht="16.8" spans="1:12">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="16.8" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" ht="16.8" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" ht="16.8" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1646,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1666,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1686,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1706,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1726,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>
